--- a/[43K22T06]Project estimation.xlsx
+++ b/[43K22T06]Project estimation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11565" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11565" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Estimation" sheetId="2" r:id="rId2"/>
     <sheet name="Plan" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,7 +599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1194,9 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1212,7 +1214,9 @@
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1230,7 +1234,9 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1248,7 +1254,9 @@
       <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1266,7 +1274,9 @@
       <c r="E14" s="2">
         <v>7</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1284,7 +1294,9 @@
       <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1302,7 +1314,9 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1320,7 +1334,9 @@
       <c r="E17" s="2">
         <v>30</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1338,7 +1354,9 @@
       <c r="E18" s="2">
         <v>20</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1356,7 +1374,9 @@
       <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1372,7 +1392,9 @@
       <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1388,7 +1410,9 @@
       <c r="E21" s="2">
         <v>10</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1404,7 +1428,9 @@
       <c r="E22" s="2">
         <v>10</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1422,7 +1448,9 @@
       <c r="E23" s="2">
         <v>5</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1438,7 +1466,9 @@
       <c r="E24" s="2">
         <v>5</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1454,7 +1484,9 @@
       <c r="E25" s="2">
         <v>5</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1470,7 +1502,9 @@
       <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1486,7 +1520,9 @@
       <c r="E27" s="2">
         <v>5</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1502,7 +1538,9 @@
       <c r="E28" s="2">
         <v>15</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -1518,7 +1556,9 @@
       <c r="E29" s="2">
         <v>10</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -1534,7 +1574,9 @@
       <c r="E30" s="2">
         <v>7</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
@@ -1549,7 +1591,7 @@
       </c>
       <c r="F31" s="10">
         <f>SUM(F7:F30)</f>
-        <v>3</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2017,12 +2059,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
     <mergeCell ref="E11:E15"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="E21:E24"/>
@@ -2030,6 +2066,12 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
